--- a/source/source_CRPM_exceptions.xlsx
+++ b/source/source_CRPM_exceptions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex.wiepking\Downloads\python test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex.wiepking\Projects\CRPM check\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467D4780-26DA-4FA4-A196-0B9559B54C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCF2C33-552F-4B21-8880-BAD0F8B56C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13875" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="76">
   <si>
     <t>Rule_Type</t>
   </si>
@@ -134,9 +134,6 @@
     <t>No taxes triggered in US configuration for tax exempt rate</t>
   </si>
   <si>
-    <t>ADT,ADTM,BBB,BNS,CDT,LAD,MBR,MPK,MSB,MWC,NYB,NYT,SFU,SPS,SSL,WCA,WNM</t>
-  </si>
-  <si>
     <t>EXPPROMO,EXCOFLEX,EXCOCORP,EXCOLS,EXCONREF,PKGLS,EPKGPRM,FLEXPKG,LEXPPRM,LEPKGPRM,ECFLBK,PKGBK,EXPPROMOBK,EHCPROMOBK,EPKGPRMBK</t>
   </si>
   <si>
@@ -264,13 +261,16 @@
   </si>
   <si>
     <t>BBB,BNS,WCA,WNM,NYT,NYB</t>
+  </si>
+  <si>
+    <t>GRPNT,NOTAX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,12 +291,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -306,7 +300,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -329,26 +323,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -376,10 +355,6 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -683,25 +658,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="180" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="57.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="86.42578125" style="3" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="12.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="54" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" style="1" customWidth="1"/>
+    <col min="10" max="11" width="10.140625" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -745,23 +720,23 @@
         <v>17</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="7">
-        <v>108000</v>
+        <v>19</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>24</v>
@@ -778,13 +753,13 @@
         <v>17</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7" t="s">
@@ -794,13 +769,13 @@
         <v>108000</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>24</v>
       </c>
       <c r="J3" s="9">
-        <v>45915</v>
+        <v>45926</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>13</v>
@@ -814,10 +789,10 @@
         <v>18</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7" t="s">
@@ -827,40 +802,40 @@
         <v>20</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>24</v>
       </c>
       <c r="J4" s="9">
-        <v>45915</v>
+        <v>45926</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="7">
-        <v>108000</v>
+        <v>19</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>24</v>
@@ -872,7 +847,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>17</v>
       </c>
@@ -880,10 +855,10 @@
         <v>18</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7" t="s">
@@ -893,7 +868,7 @@
         <v>20</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>24</v>
@@ -910,56 +885,56 @@
         <v>17</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="7">
-        <v>108000</v>
+        <v>19</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="H7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="9">
+        <v>45926</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="9">
-        <v>45915</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="36" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="7">
-        <v>108000</v>
+        <v>19</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>24</v>
@@ -976,122 +951,118 @@
         <v>17</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="7">
-        <v>108000</v>
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>24</v>
       </c>
       <c r="J9" s="9">
-        <v>45915</v>
+        <v>45926</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>38</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="7">
-        <v>108000</v>
+        <v>19</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>24</v>
       </c>
       <c r="J10" s="9">
-        <v>45926</v>
+        <v>45915</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="7">
-        <v>108000</v>
+        <v>19</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>24</v>
       </c>
       <c r="J11" s="9">
-        <v>45926</v>
+        <v>45915</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="36" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>35</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="7">
-        <v>108000</v>
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>24</v>
@@ -1105,26 +1076,24 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>35</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="7">
-        <v>108000</v>
+        <v>19</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>24</v>
@@ -1136,28 +1105,28 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="G14" s="7">
         <v>108000</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>24</v>
@@ -1170,25 +1139,25 @@
       </c>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="G15" s="7">
+        <v>108000</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>58</v>
@@ -1197,34 +1166,34 @@
         <v>24</v>
       </c>
       <c r="J15" s="9">
-        <v>45915</v>
+        <v>45926</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>20</v>
+        <v>35</v>
+      </c>
+      <c r="G16" s="7">
+        <v>108000</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>24</v>
@@ -1236,34 +1205,34 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="24" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>20</v>
+        <v>35</v>
+      </c>
+      <c r="G17" s="7">
+        <v>108000</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>24</v>
       </c>
       <c r="J17" s="9">
-        <v>45926</v>
+        <v>45915</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>13</v>
@@ -1273,47 +1242,47 @@
       <c r="A18" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="G18" s="7">
         <v>108000</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>24</v>
       </c>
       <c r="J18" s="9">
-        <v>45922</v>
+        <v>45915</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="36" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>18</v>
+      <c r="B19" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7" t="s">
@@ -1323,40 +1292,40 @@
         <v>108000</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>24</v>
       </c>
       <c r="J19" s="9">
-        <v>45926</v>
+        <v>45915</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="36" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>18</v>
+      <c r="B20" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="G20" s="7">
+        <v>108000</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>24</v>
@@ -1372,21 +1341,21 @@
       <c r="A21" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>18</v>
+      <c r="B21" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>20</v>
+        <v>35</v>
+      </c>
+      <c r="G21" s="7">
+        <v>108000</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>58</v>
@@ -1405,14 +1374,14 @@
       <c r="A22" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7" t="s">
@@ -1422,7 +1391,7 @@
         <v>108000</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>24</v>
@@ -1434,34 +1403,34 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="36" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="24" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="G23" s="7">
+        <v>108000</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>24</v>
       </c>
       <c r="J23" s="9">
-        <v>45915</v>
+        <v>45926</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>13</v>
@@ -1475,10 +1444,10 @@
         <v>14</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7" t="s">
@@ -1488,13 +1457,13 @@
         <v>108000</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>24</v>
       </c>
       <c r="J24" s="9">
-        <v>45922</v>
+        <v>45915</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>13</v>
@@ -1504,24 +1473,24 @@
       <c r="A25" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>11</v>
+      <c r="B25" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>44</v>
+        <v>34</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="G25" s="7">
+        <v>108000</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>24</v>
@@ -1535,30 +1504,32 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="D26" s="4" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="G26" s="7">
+        <v>108000</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>24</v>
       </c>
       <c r="J26" s="9">
-        <v>45915</v>
+        <v>45922</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>13</v>
@@ -1566,61 +1537,65 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="D27" s="4" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="G27" s="7">
+        <v>108000</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="I27" s="7" t="s">
         <v>24</v>
       </c>
       <c r="J27" s="9">
-        <v>45915</v>
+        <v>45922</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="24" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="D28" s="4" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="G28" s="7">
+        <v>108000</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="I28" s="7" t="s">
         <v>24</v>
       </c>
       <c r="J28" s="9">
-        <v>45915</v>
+        <v>45926</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>13</v>
@@ -1628,24 +1603,26 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="D29" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>40</v>
+        <v>15</v>
+      </c>
+      <c r="G29" s="7">
+        <v>108000</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I29" s="7" t="s">
         <v>24</v>
@@ -1659,21 +1636,23 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="D30" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="G30" s="7">
+        <v>108000</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>30</v>
@@ -1697,7 +1676,7 @@
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="7" t="s">
@@ -1728,14 +1707,14 @@
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>30</v>
@@ -1750,627 +1729,136 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="24" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>71</v>
+        <v>42</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" s="7">
-        <v>108000</v>
+        <v>12</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="I33" s="7" t="s">
         <v>24</v>
       </c>
       <c r="J33" s="9">
-        <v>45926</v>
+        <v>45915</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" s="7">
-        <v>108000</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="I34" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J34" s="9">
-        <v>45926</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G35" s="7">
-        <v>108000</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J35" s="9">
-        <v>45926</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(",",,D36:D51)</f>
-        <v/>
-      </c>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="7"/>
+      <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="7"/>
+      <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="7"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
+      <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-    </row>
-    <row r="40" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-    </row>
-    <row r="41" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="11"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-    </row>
-    <row r="42" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="11"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-    </row>
-    <row r="43" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="11"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-    </row>
-    <row r="44" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="11"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-    </row>
-    <row r="45" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-    </row>
-    <row r="46" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-    </row>
-    <row r="47" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-    </row>
-    <row r="48" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-    </row>
-    <row r="49" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-    </row>
-    <row r="50" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-    </row>
-    <row r="51" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-    </row>
-    <row r="52" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-    </row>
-    <row r="53" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-    </row>
-    <row r="54" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-    </row>
-    <row r="55" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-    </row>
-    <row r="56" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-    </row>
-    <row r="57" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-    </row>
-    <row r="58" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-    </row>
-    <row r="59" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-    </row>
-    <row r="60" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-    </row>
-    <row r="61" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-    </row>
-    <row r="62" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-    </row>
-    <row r="63" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-    </row>
-    <row r="64" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-    </row>
-    <row r="65" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-    </row>
-    <row r="66" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
-    </row>
-    <row r="67" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-    </row>
-    <row r="68" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
-    </row>
-    <row r="69" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-    </row>
-    <row r="70" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
-    </row>
-    <row r="71" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="11"/>
-    </row>
-    <row r="72" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-    </row>
-    <row r="73" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="10"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-    </row>
-    <row r="74" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="10"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="11"/>
-    </row>
-    <row r="75" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="10"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="11"/>
-      <c r="F75" s="11"/>
-    </row>
-    <row r="76" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="10"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="11"/>
-    </row>
-    <row r="77" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="10"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
-    </row>
-    <row r="78" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="11"/>
-    </row>
-    <row r="79" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="10"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="11"/>
-    </row>
-    <row r="80" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="10"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="11"/>
-    </row>
-    <row r="81" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="10"/>
-      <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="11"/>
-    </row>
-    <row r="82" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="10"/>
-      <c r="C82" s="10"/>
-      <c r="D82" s="10"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="11"/>
-    </row>
-    <row r="83" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="10"/>
-      <c r="C83" s="10"/>
-      <c r="D83" s="10"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="11"/>
-    </row>
-    <row r="84" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="10"/>
-      <c r="C84" s="10"/>
-      <c r="D84" s="10"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="11"/>
-    </row>
-    <row r="85" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="10"/>
-      <c r="C85" s="10"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="11"/>
-    </row>
-    <row r="86" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="10"/>
-      <c r="D86" s="11"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="11"/>
-    </row>
-    <row r="87" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D87" s="11"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="11"/>
-    </row>
-    <row r="88" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D88" s="11"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="11"/>
-    </row>
-    <row r="89" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D89" s="11"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="11"/>
-    </row>
-    <row r="90" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D90" s="11"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="11"/>
-    </row>
-    <row r="91" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D91" s="11"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="11"/>
-    </row>
-    <row r="92" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D92" s="11"/>
-      <c r="E92" s="11"/>
-      <c r="F92" s="11"/>
-    </row>
-    <row r="93" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D93" s="11"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="11"/>
-    </row>
-    <row r="94" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D94" s="11"/>
-      <c r="E94" s="11"/>
-      <c r="F94" s="11"/>
-    </row>
-    <row r="95" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D95" s="11"/>
-      <c r="E95" s="11"/>
-      <c r="F95" s="11"/>
-    </row>
-    <row r="96" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D96" s="11"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="11"/>
-    </row>
-    <row r="97" spans="4:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D97" s="11"/>
-      <c r="E97" s="11"/>
-      <c r="F97" s="11"/>
-    </row>
-    <row r="98" spans="4:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D98" s="11"/>
-      <c r="E98" s="11"/>
-      <c r="F98" s="11"/>
-    </row>
-    <row r="99" spans="4:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D99" s="11"/>
-      <c r="E99" s="11"/>
-      <c r="F99" s="11"/>
-    </row>
-    <row r="100" spans="4:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D100" s="11"/>
-      <c r="E100" s="11"/>
-      <c r="F100" s="11"/>
-    </row>
-    <row r="101" spans="4:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D101" s="11"/>
-      <c r="E101" s="11"/>
-      <c r="F101" s="11"/>
-    </row>
-    <row r="102" spans="4:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D102" s="11"/>
-      <c r="E102" s="11"/>
-      <c r="F102" s="11"/>
-    </row>
-    <row r="103" spans="4:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D103" s="11"/>
-      <c r="E103" s="11"/>
-      <c r="F103" s="11"/>
-    </row>
-    <row r="104" spans="4:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D104" s="11"/>
-      <c r="E104" s="11"/>
-      <c r="F104" s="11"/>
-    </row>
-    <row r="105" spans="4:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D105" s="11"/>
-      <c r="E105" s="11"/>
-      <c r="F105" s="11"/>
-    </row>
-    <row r="106" spans="4:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D106" s="11"/>
-      <c r="E106" s="11"/>
-      <c r="F106" s="11"/>
-    </row>
-    <row r="107" spans="4:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D107" s="11"/>
-      <c r="E107" s="11"/>
-      <c r="F107" s="11"/>
-    </row>
-    <row r="108" spans="4:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D108" s="11"/>
-      <c r="E108" s="11"/>
-      <c r="F108" s="11"/>
-    </row>
-    <row r="109" spans="4:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D109" s="11"/>
-      <c r="E109" s="11"/>
-      <c r="F109" s="11"/>
-    </row>
-    <row r="110" spans="4:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D110" s="11"/>
-      <c r="E110" s="11"/>
-      <c r="F110" s="11"/>
-    </row>
-    <row r="111" spans="4:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D111" s="11"/>
-      <c r="E111" s="11"/>
-      <c r="F111" s="11"/>
-    </row>
-    <row r="112" spans="4:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D112" s="11"/>
-      <c r="E112" s="11"/>
-      <c r="F112" s="11"/>
-    </row>
-    <row r="113" spans="4:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D113" s="11"/>
-      <c r="E113" s="11"/>
-      <c r="F113" s="11"/>
-    </row>
-    <row r="114" spans="4:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D114" s="11"/>
-      <c r="E114" s="11"/>
-      <c r="F114" s="11"/>
-    </row>
-    <row r="115" spans="4:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D115" s="11"/>
-      <c r="E115" s="11"/>
-      <c r="F115" s="11"/>
-    </row>
-    <row r="116" spans="4:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D116" s="11"/>
-      <c r="E116" s="11"/>
-      <c r="F116" s="11"/>
-    </row>
-    <row r="117" spans="4:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D117" s="11"/>
-      <c r="E117" s="11"/>
-      <c r="F117" s="11"/>
+      <c r="J39" s="2"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J41" s="2"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J42" s="2"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J43" s="2"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J44" s="2"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J45" s="2"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J46" s="2"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J47" s="2"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J48" s="2"/>
+    </row>
+    <row r="49" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J49" s="2"/>
+    </row>
+    <row r="50" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J50" s="2"/>
+    </row>
+    <row r="51" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J51" s="2"/>
+    </row>
+    <row r="52" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J52" s="2"/>
+    </row>
+    <row r="53" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J53" s="2"/>
+    </row>
+    <row r="54" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J54" s="2"/>
+    </row>
+    <row r="55" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J55" s="2"/>
+    </row>
+    <row r="56" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J56" s="2"/>
+    </row>
+    <row r="57" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J57" s="2"/>
+    </row>
+    <row r="58" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J58" s="2"/>
+    </row>
+    <row r="59" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J59" s="2"/>
+    </row>
+    <row r="60" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J60" s="2"/>
+    </row>
+    <row r="61" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J61" s="2"/>
+    </row>
+    <row r="62" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J62" s="2"/>
+    </row>
+    <row r="63" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J63" s="2"/>
+    </row>
+    <row r="64" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J64" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:K1" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K32">
-      <sortCondition ref="C1"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K35">
+      <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/source/source_CRPM_exceptions.xlsx
+++ b/source/source_CRPM_exceptions.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex.wiepking\Projects\CRPM check\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCF2C33-552F-4B21-8880-BAD0F8B56C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96CB0273-D9BB-42BC-87F3-DF2ED37F889F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25245" yWindow="2685" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$34</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="103">
   <si>
     <t>Rule_Type</t>
   </si>
@@ -264,6 +264,87 @@
   </si>
   <si>
     <t>GRPNT,NOTAX</t>
+  </si>
+  <si>
+    <t>COMPBKF,COMPBKF,COMPHU,COMP,COMP,COMP,COMP,COMB,COMB,COMB,COMB,COMB,COMB,COMB,COMB,COMB,COMB,COMPRAOK,COMPRABK,EMPCOMP,HCA7,HCB9,HCDX,HCB8,HCDW</t>
+  </si>
+  <si>
+    <t>ADT,MSB,NYB,NYT,BBB,BNS,CDT,LAD,MBR,MPK,MWC,SFU,SPS,SSL,WCA,WNM</t>
+  </si>
+  <si>
+    <t>COMP rates do not trigger tax calculations</t>
+  </si>
+  <si>
+    <t>NYB</t>
+  </si>
+  <si>
+    <t>NYT</t>
+  </si>
+  <si>
+    <t>AMA</t>
+  </si>
+  <si>
+    <t>AMS</t>
+  </si>
+  <si>
+    <t>AMZ</t>
+  </si>
+  <si>
+    <t>GEN</t>
+  </si>
+  <si>
+    <t>KLB</t>
+  </si>
+  <si>
+    <t>PCG</t>
+  </si>
+  <si>
+    <t>PGL</t>
+  </si>
+  <si>
+    <t>PLD</t>
+  </si>
+  <si>
+    <t>POP</t>
+  </si>
+  <si>
+    <t>RTM</t>
+  </si>
+  <si>
+    <t>ZUR</t>
+  </si>
+  <si>
+    <t>COMPBKF</t>
+  </si>
+  <si>
+    <t>COMPHU</t>
+  </si>
+  <si>
+    <t>MICRO</t>
+  </si>
+  <si>
+    <t>ECNRPKG</t>
+  </si>
+  <si>
+    <t>ECCOBK</t>
+  </si>
+  <si>
+    <t>HCA7</t>
+  </si>
+  <si>
+    <t>HCB9</t>
+  </si>
+  <si>
+    <t>HCDX</t>
+  </si>
+  <si>
+    <t>HCB8</t>
+  </si>
+  <si>
+    <t>COMPBKF,COMPHU,MICRO,ECNRPKG,HTNREF,ECCOBK,HCA7,HCB9,HCDX,HCB8</t>
+  </si>
+  <si>
+    <t>NYB,NYT,AMA,AMS,AMZ,GEN,KLB,PCG,PGL,PLD,POP,RIT,RTM,ZUR</t>
   </si>
 </sst>
 </file>
@@ -658,11 +739,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N64"/>
+  <dimension ref="A1:N137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="180" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="180" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1568,7 +1649,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="24" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>17</v>
       </c>
@@ -1667,26 +1748,27 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="24" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>30</v>
+        <v>17</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="1">
+        <v>108000</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="I31" s="7" t="s">
         <v>24</v>
@@ -1714,7 +1796,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>30</v>
@@ -1731,16 +1813,14 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>43</v>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="7" t="s">
@@ -1750,7 +1830,7 @@
         <v>39</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="I33" s="7" t="s">
         <v>24</v>
@@ -1763,10 +1843,69 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="J34" s="2"/>
+      <c r="A34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J34" s="9">
+        <v>45915</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="J35" s="2"/>
+      <c r="A35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J35" s="9">
+        <v>45915</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="J36" s="2"/>
@@ -1774,90 +1913,525 @@
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" t="str">
+        <f>_xlfn.TEXTJOIN(",",,B38:B51)</f>
+        <v>NYB,NYT,AMA,AMS,AMZ,GEN,KLB,PCG,PGL,PLD,POP,RIT,RTM,ZUR</v>
+      </c>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39"/>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" t="s">
+        <v>95</v>
+      </c>
+      <c r="D41"/>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43"/>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" t="s">
+        <v>97</v>
+      </c>
+      <c r="D44"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" t="s">
+        <v>99</v>
+      </c>
+      <c r="D46"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" t="s">
+        <v>100</v>
+      </c>
+      <c r="D47"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48"/>
+      <c r="D48"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>42</v>
+      </c>
+      <c r="C49"/>
+      <c r="D49"/>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50"/>
+      <c r="D50"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51"/>
+      <c r="D51"/>
       <c r="J51" s="2"/>
     </row>
-    <row r="52" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52"/>
       <c r="J52" s="2"/>
     </row>
-    <row r="53" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="D53"/>
       <c r="J53" s="2"/>
     </row>
-    <row r="54" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
       <c r="J54" s="2"/>
     </row>
-    <row r="55" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
       <c r="J55" s="2"/>
     </row>
-    <row r="56" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56"/>
       <c r="J56" s="2"/>
     </row>
-    <row r="57" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
       <c r="J57" s="2"/>
     </row>
-    <row r="58" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58"/>
       <c r="J58" s="2"/>
     </row>
-    <row r="59" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59"/>
       <c r="J59" s="2"/>
     </row>
-    <row r="60" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60"/>
       <c r="J60" s="2"/>
     </row>
-    <row r="61" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B61"/>
+      <c r="C61"/>
+      <c r="D61"/>
       <c r="J61" s="2"/>
     </row>
-    <row r="62" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62"/>
       <c r="J62" s="2"/>
     </row>
-    <row r="63" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
       <c r="J63" s="2"/>
     </row>
-    <row r="64" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B64"/>
+      <c r="C64"/>
+      <c r="D64"/>
       <c r="J64" s="2"/>
     </row>
+    <row r="65" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B65"/>
+      <c r="C65"/>
+      <c r="D65"/>
+    </row>
+    <row r="66" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66"/>
+    </row>
+    <row r="67" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B67"/>
+      <c r="C67"/>
+      <c r="D67"/>
+    </row>
+    <row r="68" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="D68"/>
+    </row>
+    <row r="69" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B69"/>
+      <c r="C69"/>
+      <c r="D69"/>
+    </row>
+    <row r="70" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B70"/>
+      <c r="C70"/>
+      <c r="D70"/>
+    </row>
+    <row r="71" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B71"/>
+      <c r="C71"/>
+      <c r="D71"/>
+    </row>
+    <row r="72" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B72"/>
+      <c r="C72"/>
+      <c r="D72"/>
+    </row>
+    <row r="73" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73"/>
+    </row>
+    <row r="74" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74"/>
+    </row>
+    <row r="75" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B75"/>
+      <c r="C75"/>
+      <c r="D75"/>
+    </row>
+    <row r="76" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C76"/>
+      <c r="D76"/>
+    </row>
+    <row r="77" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C77"/>
+      <c r="D77"/>
+    </row>
+    <row r="78" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C78"/>
+      <c r="D78"/>
+    </row>
+    <row r="79" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C79"/>
+      <c r="D79"/>
+    </row>
+    <row r="80" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C80"/>
+      <c r="D80"/>
+    </row>
+    <row r="81" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C81"/>
+      <c r="D81"/>
+    </row>
+    <row r="82" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C82"/>
+      <c r="D82"/>
+    </row>
+    <row r="83" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C83"/>
+      <c r="D83"/>
+    </row>
+    <row r="84" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C84"/>
+      <c r="D84"/>
+    </row>
+    <row r="85" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C85"/>
+      <c r="D85"/>
+    </row>
+    <row r="86" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C86"/>
+      <c r="D86"/>
+    </row>
+    <row r="87" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C87"/>
+      <c r="D87"/>
+    </row>
+    <row r="88" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C88"/>
+      <c r="D88"/>
+    </row>
+    <row r="89" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C89"/>
+      <c r="D89"/>
+    </row>
+    <row r="90" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C90"/>
+      <c r="D90"/>
+    </row>
+    <row r="91" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C91"/>
+      <c r="D91"/>
+    </row>
+    <row r="92" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C92"/>
+      <c r="D92"/>
+    </row>
+    <row r="93" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C93"/>
+      <c r="D93"/>
+    </row>
+    <row r="94" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C94"/>
+      <c r="D94"/>
+    </row>
+    <row r="95" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C95"/>
+      <c r="D95"/>
+    </row>
+    <row r="96" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C96"/>
+      <c r="D96"/>
+    </row>
+    <row r="97" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C97"/>
+      <c r="D97"/>
+    </row>
+    <row r="98" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C98"/>
+      <c r="D98"/>
+    </row>
+    <row r="99" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C99"/>
+      <c r="D99"/>
+    </row>
+    <row r="100" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C100"/>
+      <c r="D100"/>
+    </row>
+    <row r="101" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C101"/>
+      <c r="D101"/>
+    </row>
+    <row r="102" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C102"/>
+      <c r="D102"/>
+    </row>
+    <row r="103" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C103"/>
+      <c r="D103"/>
+    </row>
+    <row r="104" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C104"/>
+      <c r="D104"/>
+    </row>
+    <row r="105" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C105"/>
+      <c r="D105"/>
+    </row>
+    <row r="106" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C106"/>
+      <c r="D106"/>
+    </row>
+    <row r="107" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C107"/>
+      <c r="D107"/>
+    </row>
+    <row r="108" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C108"/>
+      <c r="D108"/>
+    </row>
+    <row r="109" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C109"/>
+      <c r="D109"/>
+    </row>
+    <row r="110" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C110"/>
+      <c r="D110"/>
+    </row>
+    <row r="111" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C111"/>
+      <c r="D111"/>
+    </row>
+    <row r="112" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C112"/>
+      <c r="D112"/>
+    </row>
+    <row r="113" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C113"/>
+      <c r="D113"/>
+    </row>
+    <row r="114" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C114"/>
+      <c r="D114"/>
+    </row>
+    <row r="115" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C115"/>
+      <c r="D115"/>
+    </row>
+    <row r="116" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C116"/>
+      <c r="D116"/>
+    </row>
+    <row r="117" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C117"/>
+      <c r="D117"/>
+    </row>
+    <row r="118" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C118"/>
+      <c r="D118"/>
+    </row>
+    <row r="119" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C119"/>
+      <c r="D119"/>
+    </row>
+    <row r="120" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C120"/>
+      <c r="D120"/>
+    </row>
+    <row r="121" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C121"/>
+      <c r="D121"/>
+    </row>
+    <row r="122" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C122"/>
+      <c r="D122"/>
+    </row>
+    <row r="123" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C123"/>
+      <c r="D123"/>
+    </row>
+    <row r="124" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C124"/>
+      <c r="D124"/>
+    </row>
+    <row r="125" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C125"/>
+      <c r="D125"/>
+    </row>
+    <row r="126" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C126"/>
+      <c r="D126"/>
+    </row>
+    <row r="127" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C127"/>
+      <c r="D127"/>
+    </row>
+    <row r="128" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C128"/>
+      <c r="D128"/>
+    </row>
+    <row r="129" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C129"/>
+      <c r="D129"/>
+    </row>
+    <row r="130" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C130"/>
+      <c r="D130"/>
+    </row>
+    <row r="131" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C131"/>
+      <c r="D131"/>
+    </row>
+    <row r="132" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C132"/>
+      <c r="D132"/>
+    </row>
+    <row r="133" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C133"/>
+      <c r="D133"/>
+    </row>
+    <row r="134" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C134"/>
+      <c r="D134"/>
+    </row>
+    <row r="135" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C135"/>
+      <c r="D135"/>
+    </row>
+    <row r="136" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C136"/>
+      <c r="D136"/>
+    </row>
+    <row r="137" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C137"/>
+      <c r="D137"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K1" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K35">
+  <autoFilter ref="A1:K34" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K34">
       <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
